--- a/requisitos_practica1.xlsx
+++ b/requisitos_practica1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\Practica 1 IA\practica_1_intro_IA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harrison\OneDrive - Universidad Nacional de Colombia\Documentos\GitHub\practica_1_intro_IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE94DFC3-28A8-4A70-AE8D-35049328599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4360DC-3712-4943-A502-46F71BBCE602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,13 +238,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,20 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -634,7 +642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -643,7 +651,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -652,7 +660,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -663,7 +671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -672,7 +680,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -681,7 +689,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -690,7 +698,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -699,7 +707,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -708,7 +716,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -717,7 +725,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -726,7 +734,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -735,7 +743,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -744,7 +752,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,79 +761,89 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C23" s="2"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -833,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -841,7 +859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -849,69 +867,77 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
